--- a/required_files/relative risks.xlsx
+++ b/required_files/relative risks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="273840" yWindow="0" windowWidth="21915" windowHeight="11865"/>
+    <workbookView xWindow="276270" yWindow="0" windowWidth="21915" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Use This" sheetId="5" r:id="rId1"/>
@@ -936,8 +936,8 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q32" sqref="Q32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,7 +2846,7 @@
         <v>62</v>
       </c>
       <c r="R39" s="25">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="S39" s="26"/>
     </row>
@@ -2895,7 +2895,9 @@
         <v>9.2543967021286156E-12</v>
       </c>
       <c r="Q40" s="36"/>
-      <c r="R40" s="25"/>
+      <c r="R40" s="25">
+        <v>0.12</v>
+      </c>
       <c r="S40" s="26"/>
     </row>
     <row r="41" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2947,7 +2949,7 @@
         <v>22</v>
       </c>
       <c r="R41" s="25">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="S41" s="26"/>
     </row>

--- a/required_files/relative risks.xlsx
+++ b/required_files/relative risks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="276270" yWindow="0" windowWidth="21915" windowHeight="11865"/>
+    <workbookView xWindow="278700" yWindow="0" windowWidth="21915" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Use This" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
   <si>
     <t>reflux</t>
   </si>
@@ -936,8 +936,8 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R42" sqref="R42"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2894,7 +2894,9 @@
         <f>EXP(-0.717*O40 - 0.416*O40^2)</f>
         <v>9.2543967021286156E-12</v>
       </c>
-      <c r="Q40" s="36"/>
+      <c r="Q40" s="36" t="s">
+        <v>22</v>
+      </c>
       <c r="R40" s="25">
         <v>0.12</v>
       </c>

--- a/required_files/relative risks.xlsx
+++ b/required_files/relative risks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="278700" yWindow="0" windowWidth="21915" windowHeight="11865"/>
+    <workbookView xWindow="295710" yWindow="0" windowWidth="21915" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Use This" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="80">
   <si>
     <t>reflux</t>
   </si>
@@ -427,6 +427,50 @@
         <scheme val="minor"/>
       </rPr>
       <t>raised conservatively to population figure 0.4 (Liao, 2012).</t>
+    </r>
+  </si>
+  <si>
+    <t>SCREEN NEGATIVE</t>
+  </si>
+  <si>
+    <t>Vaughan, T. L. &amp; Fitzgerald, R. C. Precision prevention of oesophageal adenocarcinoma. Nat Rev Gastroenterol Hepatol 12, 243–248 (2015).</t>
+  </si>
+  <si>
+    <t>0.2 * 0.1 * 0.92</t>
+  </si>
+  <si>
+    <t>. yes</t>
+  </si>
+  <si>
+    <t>screen.neg</t>
+  </si>
+  <si>
+    <t>prevalence reversed for protective</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assume sqroot of relative risk from above (Cook MB, et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PLoS ONE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 9, e103508 (2014)).</t>
     </r>
   </si>
 </sst>
@@ -463,7 +507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,6 +544,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -513,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -653,6 +703,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,11 +989,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q40" sqref="Q40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,7 +1783,7 @@
         <v>0.5</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1785,7 +1841,9 @@
       <c r="R16" s="15">
         <v>0.5</v>
       </c>
-      <c r="S16" s="9"/>
+      <c r="S16" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1821,10 +1879,12 @@
       <c r="Q17" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R17" s="61">
         <v>0.25</v>
       </c>
-      <c r="S17" s="9"/>
+      <c r="S17" s="9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="18" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1873,7 +1933,7 @@
       <c r="Q18" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="62">
         <v>0.75</v>
       </c>
       <c r="S18" s="9"/>
@@ -1937,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" ref="G20:G22" si="15">LN(D20)</f>
+        <f t="shared" ref="G20:G24" si="15">LN(D20)</f>
         <v>-0.14966077455440627</v>
       </c>
       <c r="H20" s="15">
@@ -2089,491 +2149,506 @@
       </c>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="9"/>
-    </row>
-    <row r="24" spans="1:19" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="40">
-        <v>1</v>
-      </c>
-      <c r="C24" s="40">
-        <v>1</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="40" t="s">
+    <row r="23" spans="1:19" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="Q23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R23" s="27">
+        <v>1.84E-2</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="21">
+        <v>0</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="23">
+        <v>1</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="15"/>
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="H24" s="27">
+        <v>0.56661507806391909</v>
+      </c>
+      <c r="I24" s="15">
+        <f>EXP($G24-1.96*$H24)</f>
+        <v>0.10869296813401993</v>
+      </c>
+      <c r="J24" s="15">
+        <f>EXP($G24+1.96*$H24)</f>
+        <v>1.0019047402010846</v>
+      </c>
+      <c r="K24" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="L24" s="15">
+        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K24))</f>
+        <v>1.9566415851654133</v>
+      </c>
+      <c r="M24" s="15">
+        <f>ABS(LN(D24) / L24)</f>
+        <v>0.56661507806391909</v>
+      </c>
+      <c r="Q24" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" s="27">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="S24" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="R26" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12">
+        <f>SQRT(D3)</f>
+        <v>1.4422205101855958</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" ref="G27:G29" si="20">LN(D27)</f>
+        <v>0.36618394685661337</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0.1871492201908079</v>
+      </c>
+      <c r="I27" s="15">
+        <f t="shared" ref="I27:I29" si="21">EXP($G27-1.96*$H27)</f>
+        <v>0.99937167276291416</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" ref="J27:J29" si="22">EXP($G27+1.96*$H27)</f>
+        <v>2.081307742343272</v>
+      </c>
+      <c r="K27" s="55">
+        <v>0.05</v>
+      </c>
+      <c r="L27" s="15">
+        <f t="shared" ref="L27:L29" si="23" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K27))</f>
+        <v>1.9566415851654133</v>
+      </c>
+      <c r="M27" s="15">
+        <f t="shared" ref="M27:M29" si="24">ABS(LN(D27) / L27)</f>
+        <v>0.1871492201908079</v>
+      </c>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="R27" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="S27" s="9"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" ref="D28:D29" si="25">SQRT(D4)</f>
+        <v>2.2516660498395407</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="13">
+        <v>2</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" si="20"/>
+        <v>0.81167040880154595</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0.4148283543370197</v>
+      </c>
+      <c r="I28" s="15">
+        <f t="shared" si="21"/>
+        <v>0.99860780430580842</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="22"/>
+        <v>5.0770682725882148</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="L28" s="15">
+        <f t="shared" si="23"/>
+        <v>1.9566415851654133</v>
+      </c>
+      <c r="M28" s="15">
+        <f t="shared" si="24"/>
+        <v>0.4148283543370197</v>
+      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="R28" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <f t="shared" si="25"/>
+        <v>2.8213471959331771</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="13">
+        <v>3</v>
+      </c>
+      <c r="G29" s="12">
+        <f t="shared" si="20"/>
+        <v>1.0372144999281458</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0.53009938447181693</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="21"/>
+        <v>0.9982212901460954</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="22"/>
+        <v>7.974183759229386</v>
+      </c>
+      <c r="K29" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="23"/>
+        <v>1.9566415851654133</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="24"/>
+        <v>0.53009938447181693</v>
+      </c>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="R29" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="1:19" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="40">
+        <v>1</v>
+      </c>
+      <c r="C30" s="40">
+        <v>1</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="42">
-        <v>0</v>
-      </c>
-      <c r="G24" s="41">
-        <v>0</v>
-      </c>
-      <c r="H24" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="58" t="s">
+      <c r="F30" s="42">
+        <v>0</v>
+      </c>
+      <c r="G30" s="41">
+        <v>0</v>
+      </c>
+      <c r="H30" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="R24" s="44">
+      <c r="R30" s="44">
         <v>0.36</v>
       </c>
-      <c r="S24" s="45"/>
-    </row>
-    <row r="25" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="40">
-        <v>1</v>
-      </c>
-      <c r="C25" s="40">
-        <v>1</v>
-      </c>
-      <c r="D25" s="41">
+      <c r="S30" s="45"/>
+    </row>
+    <row r="31" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="40">
+        <v>1</v>
+      </c>
+      <c r="C31" s="40">
+        <v>1</v>
+      </c>
+      <c r="D31" s="41">
         <v>1.46</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E31" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="42">
-        <v>1</v>
-      </c>
-      <c r="G25" s="41">
-        <f t="shared" ref="G25" si="20">LN(D25)</f>
+      <c r="F31" s="42">
+        <v>1</v>
+      </c>
+      <c r="G31" s="41">
+        <f t="shared" ref="G31" si="26">LN(D31)</f>
         <v>0.37843643572024505</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H31" s="41">
         <v>0.19341121981124215</v>
       </c>
-      <c r="I25" s="43">
-        <f t="shared" ref="I25:I30" si="21">EXP($G25-1.96*$H25)</f>
+      <c r="I31" s="43">
+        <f t="shared" ref="I31:I36" si="27">EXP($G31-1.96*$H31)</f>
         <v>0.99935065580546123</v>
       </c>
-      <c r="J25" s="43">
-        <f t="shared" ref="J25:J30" si="22">EXP($G25+1.96*$H25)</f>
+      <c r="J31" s="43">
+        <f t="shared" ref="J31:J36" si="28">EXP($G31+1.96*$H31)</f>
         <v>2.1329850414537059</v>
       </c>
-      <c r="K25" s="55">
+      <c r="K31" s="55">
         <v>0.05</v>
       </c>
-      <c r="L25" s="43">
-        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K25))</f>
+      <c r="L31" s="43">
+        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K31))</f>
         <v>1.9566415851654133</v>
       </c>
-      <c r="M25" s="43">
-        <f>ABS(LN(D25) / L25)</f>
+      <c r="M31" s="43">
+        <f>ABS(LN(D31) / L31)</f>
         <v>0.19341121981124215</v>
       </c>
-      <c r="Q25" s="46" t="s">
+      <c r="Q31" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="R25" s="44">
+      <c r="R31" s="44">
         <v>0.64</v>
       </c>
-      <c r="S25" s="45" t="s">
+      <c r="S31" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+    <row r="32" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="21">
-        <v>1</v>
-      </c>
-      <c r="C26" s="21">
-        <v>1</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22" t="s">
+      <c r="B32" s="21">
+        <v>1</v>
+      </c>
+      <c r="C32" s="21">
+        <v>1</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="23">
-        <v>0</v>
-      </c>
-      <c r="G26" s="22">
-        <v>0</v>
-      </c>
-      <c r="H26" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="36" t="s">
+      <c r="F32" s="23">
+        <v>0</v>
+      </c>
+      <c r="G32" s="22">
+        <v>0</v>
+      </c>
+      <c r="H32" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="R26" s="25">
+      <c r="R32" s="25">
         <v>0.3</v>
       </c>
-      <c r="S26" s="26"/>
-    </row>
-    <row r="27" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="S32" s="26"/>
+    </row>
+    <row r="33" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="21">
-        <v>1</v>
-      </c>
-      <c r="C27" s="21">
-        <v>1</v>
-      </c>
-      <c r="D27" s="22">
+      <c r="B33" s="21">
+        <v>1</v>
+      </c>
+      <c r="C33" s="21">
+        <v>1</v>
+      </c>
+      <c r="D33" s="22">
         <v>1.3</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E33" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="23">
-        <v>1</v>
-      </c>
-      <c r="G27" s="22">
-        <f>LN(D27)</f>
+      <c r="F33" s="23">
+        <v>1</v>
+      </c>
+      <c r="G33" s="22">
+        <f>LN(D33)</f>
         <v>0.26236426446749106</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H33" s="22">
         <v>0.12395734354696404</v>
       </c>
-      <c r="I27" s="24">
-        <f t="shared" si="21"/>
+      <c r="I33" s="24">
+        <f t="shared" si="27"/>
         <v>1.019597428159736</v>
       </c>
-      <c r="J27" s="24">
-        <f t="shared" si="22"/>
+      <c r="J33" s="24">
+        <f t="shared" si="28"/>
         <v>1.6575169310207745</v>
       </c>
-      <c r="K27" s="55">
+      <c r="K33" s="55">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="L27" s="27">
-        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K27))</f>
+      <c r="L33" s="27">
+        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K33))</f>
         <v>2.1165689499314611</v>
       </c>
-      <c r="M27" s="27">
-        <f>ABS(LN(D27) / L27)</f>
+      <c r="M33" s="27">
+        <f>ABS(LN(D33) / L33)</f>
         <v>0.12395734354696404</v>
       </c>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="37" t="s">
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="R27" s="25">
+      <c r="R33" s="25">
         <v>0.3</v>
       </c>
-      <c r="S27" s="29"/>
-    </row>
-    <row r="28" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="21">
-        <v>1</v>
-      </c>
-      <c r="C28" s="21">
-        <v>1</v>
-      </c>
-      <c r="D28" s="22">
-        <f>EXP(LN(D27)*2)</f>
-        <v>1.69</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="23">
-        <v>2</v>
-      </c>
-      <c r="G28" s="22">
-        <f t="shared" ref="G28:G30" si="23">LN(D28)</f>
-        <v>0.52472852893498212</v>
-      </c>
-      <c r="H28" s="22">
-        <f>H27*2</f>
-        <v>0.24791468709392808</v>
-      </c>
-      <c r="I28" s="24">
-        <f t="shared" si="21"/>
-        <v>1.039578915509948</v>
-      </c>
-      <c r="J28" s="24">
-        <f t="shared" si="22"/>
-        <v>2.7473623766205266</v>
-      </c>
-      <c r="K28" s="24">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="L28" s="27">
-        <f t="shared" ref="L28:L30" si="24" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K28))</f>
-        <v>2.1165689499314611</v>
-      </c>
-      <c r="M28" s="27">
-        <f t="shared" ref="M28:M30" si="25">ABS(LN(D28) / L28)</f>
-        <v>0.24791468709392808</v>
-      </c>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="R28" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="S28" s="26"/>
-    </row>
-    <row r="29" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="21">
-        <v>1</v>
-      </c>
-      <c r="C29" s="21">
-        <v>1</v>
-      </c>
-      <c r="D29" s="22">
-        <f>EXP(LN(D27)*3)</f>
-        <v>2.1970000000000001</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="23">
-        <v>3</v>
-      </c>
-      <c r="G29" s="22">
-        <f t="shared" si="23"/>
-        <v>0.78709279340247318</v>
-      </c>
-      <c r="H29" s="22">
-        <f>H27*3</f>
-        <v>0.37187203064089214</v>
-      </c>
-      <c r="I29" s="24">
-        <f t="shared" si="21"/>
-        <v>1.0599519886230304</v>
-      </c>
-      <c r="J29" s="24">
-        <f t="shared" si="22"/>
-        <v>4.553799654897996</v>
-      </c>
-      <c r="K29" s="24">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="L29" s="27">
-        <f t="shared" si="24"/>
-        <v>2.1165689499314611</v>
-      </c>
-      <c r="M29" s="27">
-        <f t="shared" si="25"/>
-        <v>0.37187203064089214</v>
-      </c>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="R29" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="S29" s="26"/>
-    </row>
-    <row r="30" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="21">
-        <v>1</v>
-      </c>
-      <c r="C30" s="21">
-        <v>1</v>
-      </c>
-      <c r="D30" s="22">
-        <f>EXP(LN(D27)*4)</f>
-        <v>2.8561000000000001</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="23">
-        <v>4</v>
-      </c>
-      <c r="G30" s="22">
-        <f t="shared" si="23"/>
-        <v>1.0494570578699642</v>
-      </c>
-      <c r="H30" s="22">
-        <f>H27*4</f>
-        <v>0.49582937418785616</v>
-      </c>
-      <c r="I30" s="24">
-        <f t="shared" si="21"/>
-        <v>1.0807243215728395</v>
-      </c>
-      <c r="J30" s="24">
-        <f t="shared" si="22"/>
-        <v>7.5480000284699891</v>
-      </c>
-      <c r="K30" s="24">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="L30" s="27">
-        <f t="shared" si="24"/>
-        <v>2.1165689499314611</v>
-      </c>
-      <c r="M30" s="27">
-        <f t="shared" si="25"/>
-        <v>0.49582937418785616</v>
-      </c>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="R30" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="S30" s="26"/>
-    </row>
-    <row r="31" spans="1:19" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="40">
-        <v>1</v>
-      </c>
-      <c r="C31" s="40">
-        <v>1</v>
-      </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="42">
-        <v>0</v>
-      </c>
-      <c r="G31" s="41">
-        <v>0</v>
-      </c>
-      <c r="H31" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="R31" s="44">
-        <v>0.6</v>
-      </c>
-      <c r="S31" s="45"/>
-    </row>
-    <row r="32" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="40">
-        <v>1</v>
-      </c>
-      <c r="C32" s="40">
-        <v>1</v>
-      </c>
-      <c r="D32" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="42">
-        <v>1</v>
-      </c>
-      <c r="G32" s="41">
-        <f>LN(D32)</f>
-        <v>-0.916290731874155</v>
-      </c>
-      <c r="H32" s="43">
-        <v>0.2618976502660767</v>
-      </c>
-      <c r="I32" s="55">
-        <v>0.24</v>
-      </c>
-      <c r="J32" s="55">
-        <v>0.67</v>
-      </c>
-      <c r="N32" s="43">
-        <f>(LN(J32) - LN(I32))/(2*1.96)</f>
-        <v>0.2618976502660767</v>
-      </c>
-      <c r="O32" s="43">
-        <f>ABS(LN(D32)/N32)</f>
-        <v>3.4986596135675261</v>
-      </c>
-      <c r="P32" s="43">
-        <f>EXP(-0.717*O32 - 0.416*O32^2)</f>
-        <v>5.0013300493969876E-4</v>
-      </c>
-      <c r="Q32" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="R32" s="44">
-        <v>0.4</v>
-      </c>
-      <c r="S32" s="45"/>
-    </row>
-    <row r="33" spans="1:19" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="21">
-        <v>1</v>
-      </c>
-      <c r="C33" s="21">
-        <v>1</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="23">
-        <v>0</v>
-      </c>
-      <c r="G33" s="22">
-        <v>0</v>
-      </c>
-      <c r="H33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="R33" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="S33" s="26"/>
+      <c r="S33" s="29"/>
     </row>
     <row r="34" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B34" s="21">
         <v>1</v>
@@ -2582,670 +2657,832 @@
         <v>1</v>
       </c>
       <c r="D34" s="22">
-        <v>0.61</v>
+        <f>EXP(LN(D33)*2)</f>
+        <v>1.69</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F34" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="22">
-        <f>LN(D34)</f>
-        <v>-0.49429632181478012</v>
+        <f t="shared" ref="G34:G36" si="29">LN(D34)</f>
+        <v>0.52472852893498212</v>
       </c>
       <c r="H34" s="22">
-        <v>0.16</v>
+        <f>H33*2</f>
+        <v>0.24791468709392808</v>
       </c>
       <c r="I34" s="24">
-        <f>EXP($G34-1.96*$H34)</f>
-        <v>0.44579488947420237</v>
+        <f t="shared" si="27"/>
+        <v>1.039578915509948</v>
       </c>
       <c r="J34" s="24">
-        <f>EXP($G34+1.96*$H34)</f>
-        <v>0.83468879699109466</v>
-      </c>
-      <c r="K34" s="55">
-        <v>2E-3</v>
+        <f t="shared" si="28"/>
+        <v>2.7473623766205266</v>
+      </c>
+      <c r="K34" s="24">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="L34" s="27">
-        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K34))</f>
-        <v>3.0981663940555513</v>
+        <f t="shared" ref="L34:L36" si="30" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K34))</f>
+        <v>2.1165689499314611</v>
       </c>
       <c r="M34" s="27">
-        <f>ABS(LN(D34) / L34)</f>
-        <v>0.15954479487066478</v>
-      </c>
+        <f t="shared" ref="M34:M36" si="31">ABS(LN(D34) / L34)</f>
+        <v>0.24791468709392808</v>
+      </c>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
       <c r="Q34" s="37" t="s">
         <v>22</v>
       </c>
       <c r="R34" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="S34" s="26"/>
+    </row>
+    <row r="35" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="21">
+        <v>1</v>
+      </c>
+      <c r="C35" s="21">
+        <v>1</v>
+      </c>
+      <c r="D35" s="22">
+        <f>EXP(LN(D33)*3)</f>
+        <v>2.1970000000000001</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="23">
+        <v>3</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="29"/>
+        <v>0.78709279340247318</v>
+      </c>
+      <c r="H35" s="22">
+        <f>H33*3</f>
+        <v>0.37187203064089214</v>
+      </c>
+      <c r="I35" s="24">
+        <f t="shared" si="27"/>
+        <v>1.0599519886230304</v>
+      </c>
+      <c r="J35" s="24">
+        <f t="shared" si="28"/>
+        <v>4.553799654897996</v>
+      </c>
+      <c r="K35" s="24">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L35" s="27">
+        <f t="shared" si="30"/>
+        <v>2.1165689499314611</v>
+      </c>
+      <c r="M35" s="27">
+        <f t="shared" si="31"/>
+        <v>0.37187203064089214</v>
+      </c>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="R35" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="S35" s="26"/>
+    </row>
+    <row r="36" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="21">
+        <v>1</v>
+      </c>
+      <c r="C36" s="21">
+        <v>1</v>
+      </c>
+      <c r="D36" s="22">
+        <f>EXP(LN(D33)*4)</f>
+        <v>2.8561000000000001</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="23">
+        <v>4</v>
+      </c>
+      <c r="G36" s="22">
+        <f t="shared" si="29"/>
+        <v>1.0494570578699642</v>
+      </c>
+      <c r="H36" s="22">
+        <f>H33*4</f>
+        <v>0.49582937418785616</v>
+      </c>
+      <c r="I36" s="24">
+        <f t="shared" si="27"/>
+        <v>1.0807243215728395</v>
+      </c>
+      <c r="J36" s="24">
+        <f t="shared" si="28"/>
+        <v>7.5480000284699891</v>
+      </c>
+      <c r="K36" s="24">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L36" s="27">
+        <f t="shared" si="30"/>
+        <v>2.1165689499314611</v>
+      </c>
+      <c r="M36" s="27">
+        <f t="shared" si="31"/>
+        <v>0.49582937418785616</v>
+      </c>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="S36" s="26"/>
+    </row>
+    <row r="37" spans="1:19" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="40">
+        <v>1</v>
+      </c>
+      <c r="C37" s="40">
+        <v>1</v>
+      </c>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="42">
+        <v>0</v>
+      </c>
+      <c r="G37" s="41">
+        <v>0</v>
+      </c>
+      <c r="H37" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="R37" s="44">
+        <v>0.6</v>
+      </c>
+      <c r="S37" s="45"/>
+    </row>
+    <row r="38" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="40">
+        <v>1</v>
+      </c>
+      <c r="C38" s="40">
+        <v>1</v>
+      </c>
+      <c r="D38" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="42">
+        <v>1</v>
+      </c>
+      <c r="G38" s="41">
+        <f>LN(D38)</f>
+        <v>-0.916290731874155</v>
+      </c>
+      <c r="H38" s="43">
+        <v>0.2618976502660767</v>
+      </c>
+      <c r="I38" s="55">
+        <v>0.24</v>
+      </c>
+      <c r="J38" s="55">
+        <v>0.67</v>
+      </c>
+      <c r="N38" s="43">
+        <f>(LN(J38) - LN(I38))/(2*1.96)</f>
+        <v>0.2618976502660767</v>
+      </c>
+      <c r="O38" s="43">
+        <f>ABS(LN(D38)/N38)</f>
+        <v>3.4986596135675261</v>
+      </c>
+      <c r="P38" s="43">
+        <f>EXP(-0.717*O38 - 0.416*O38^2)</f>
+        <v>5.0013300493969876E-4</v>
+      </c>
+      <c r="Q38" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="R38" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="S38" s="45"/>
+    </row>
+    <row r="39" spans="1:19" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="21">
+        <v>1</v>
+      </c>
+      <c r="C39" s="21">
+        <v>1</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="23">
+        <v>0</v>
+      </c>
+      <c r="G39" s="22">
+        <v>0</v>
+      </c>
+      <c r="H39" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="R39" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="S39" s="26"/>
+    </row>
+    <row r="40" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="21">
+        <v>1</v>
+      </c>
+      <c r="C40" s="21">
+        <v>1</v>
+      </c>
+      <c r="D40" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="23">
+        <v>1</v>
+      </c>
+      <c r="G40" s="22">
+        <f>LN(D40)</f>
+        <v>-0.49429632181478012</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0.16</v>
+      </c>
+      <c r="I40" s="24">
+        <f>EXP($G40-1.96*$H40)</f>
+        <v>0.44579488947420237</v>
+      </c>
+      <c r="J40" s="24">
+        <f>EXP($G40+1.96*$H40)</f>
+        <v>0.83468879699109466</v>
+      </c>
+      <c r="K40" s="55">
+        <v>2E-3</v>
+      </c>
+      <c r="L40" s="27">
+        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K40))</f>
+        <v>3.0981663940555513</v>
+      </c>
+      <c r="M40" s="27">
+        <f>ABS(LN(D40) / L40)</f>
+        <v>0.15954479487066478</v>
+      </c>
+      <c r="Q40" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="R40" s="25">
         <v>0.8</v>
       </c>
-      <c r="S34" s="26"/>
-    </row>
-    <row r="35" spans="1:19" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="S40" s="26"/>
+    </row>
+    <row r="41" spans="1:19" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="40">
-        <v>1</v>
-      </c>
-      <c r="C35" s="40">
-        <v>1</v>
-      </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41" t="s">
+      <c r="B41" s="40">
+        <v>1</v>
+      </c>
+      <c r="C41" s="40">
+        <v>1</v>
+      </c>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="42">
-        <v>0</v>
-      </c>
-      <c r="G35" s="41">
-        <v>0</v>
-      </c>
-      <c r="H35" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="47" t="s">
+      <c r="F41" s="42">
+        <v>0</v>
+      </c>
+      <c r="G41" s="41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="R35" s="44">
+      <c r="R41" s="44">
         <v>0.3</v>
       </c>
-      <c r="S35" s="45"/>
-    </row>
-    <row r="36" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="S41" s="45"/>
+    </row>
+    <row r="42" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="40">
-        <v>1</v>
-      </c>
-      <c r="C36" s="40">
-        <v>1</v>
-      </c>
-      <c r="D36" s="41">
+      <c r="B42" s="40">
+        <v>1</v>
+      </c>
+      <c r="C42" s="40">
+        <v>1</v>
+      </c>
+      <c r="D42" s="41">
         <f>EXP(G20*0.5)</f>
         <v>0.92790085677296363</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E42" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="42">
-        <v>1</v>
-      </c>
-      <c r="G36" s="41">
-        <f>LN(D36)</f>
+      <c r="F42" s="42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="41">
+        <f>LN(D42)</f>
         <v>-7.4830387277203148E-2</v>
       </c>
-      <c r="H36" s="41">
+      <c r="H42" s="41">
         <v>0.03</v>
       </c>
-      <c r="I36" s="43">
-        <f>EXP($G36-1.96*$H36)</f>
+      <c r="I42" s="43">
+        <f>EXP($G42-1.96*$H42)</f>
         <v>0.87491338396623741</v>
       </c>
-      <c r="J36" s="43">
-        <f>EXP($G36+1.96*$H36)</f>
+      <c r="J42" s="43">
+        <f>EXP($G42+1.96*$H42)</f>
         <v>0.98409741555996777</v>
       </c>
-      <c r="K36" s="55">
+      <c r="K42" s="55">
         <v>0.01</v>
       </c>
-      <c r="L36" s="43">
-        <f t="shared" ref="L36:L38" si="26" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K36))</f>
+      <c r="L42" s="43">
+        <f t="shared" ref="L42:L44" si="32" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K42))</f>
         <v>2.5751251253213594</v>
       </c>
-      <c r="M36" s="43">
-        <f t="shared" ref="M36:M38" si="27">ABS(LN(D36) / L36)</f>
+      <c r="M42" s="43">
+        <f t="shared" ref="M42:M44" si="33">ABS(LN(D42) / L42)</f>
         <v>2.9058932531623987E-2</v>
       </c>
-      <c r="Q36" s="46" t="s">
+      <c r="Q42" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="R36" s="44">
+      <c r="R42" s="44">
         <v>0.3</v>
-      </c>
-      <c r="S36" s="45"/>
-    </row>
-    <row r="37" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="40">
-        <v>1</v>
-      </c>
-      <c r="C37" s="40">
-        <v>1</v>
-      </c>
-      <c r="D37" s="41">
-        <f>EXP(LN(D36)*2)</f>
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="42">
-        <v>2</v>
-      </c>
-      <c r="G37" s="41">
-        <f>LN(D37)</f>
-        <v>-0.14966077455440627</v>
-      </c>
-      <c r="H37" s="41">
-        <f>H36*2</f>
-        <v>0.06</v>
-      </c>
-      <c r="I37" s="43">
-        <f>EXP($G37-1.96*$H37)</f>
-        <v>0.7654734294432527</v>
-      </c>
-      <c r="J37" s="43">
-        <f>EXP($G37+1.96*$H37)</f>
-        <v>0.96844772331180795</v>
-      </c>
-      <c r="K37" s="43">
-        <v>0.01</v>
-      </c>
-      <c r="L37" s="43">
-        <f t="shared" si="26"/>
-        <v>2.5751251253213594</v>
-      </c>
-      <c r="M37" s="43">
-        <f t="shared" si="27"/>
-        <v>5.811786506324796E-2</v>
-      </c>
-      <c r="Q37" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="R37" s="44">
-        <v>0.2</v>
-      </c>
-      <c r="S37" s="45"/>
-    </row>
-    <row r="38" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="40">
-        <v>1</v>
-      </c>
-      <c r="C38" s="40">
-        <v>1</v>
-      </c>
-      <c r="D38" s="41">
-        <f>EXP(LN(D36)*3)</f>
-        <v>0.79892263768152161</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="42">
-        <v>3</v>
-      </c>
-      <c r="G38" s="41">
-        <f t="shared" ref="G38:G41" si="28">LN(D38)</f>
-        <v>-0.2244911618316095</v>
-      </c>
-      <c r="H38" s="41">
-        <f>H36*3</f>
-        <v>0.09</v>
-      </c>
-      <c r="I38" s="43">
-        <f t="shared" ref="I38:I45" si="29">EXP($G38-1.96*$H38)</f>
-        <v>0.66972294849043701</v>
-      </c>
-      <c r="J38" s="43">
-        <f>EXP($G38+1.96*$H38)</f>
-        <v>0.95304690161608496</v>
-      </c>
-      <c r="K38" s="43">
-        <v>0.01</v>
-      </c>
-      <c r="L38" s="43">
-        <f t="shared" si="26"/>
-        <v>2.5751251253213594</v>
-      </c>
-      <c r="M38" s="43">
-        <f t="shared" si="27"/>
-        <v>8.7176797594871985E-2</v>
-      </c>
-      <c r="Q38" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="R38" s="44">
-        <v>0.2</v>
-      </c>
-      <c r="S38" s="45"/>
-    </row>
-    <row r="39" spans="1:19" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="21">
-        <v>1</v>
-      </c>
-      <c r="C39" s="21">
-        <v>1</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="23">
-        <v>0</v>
-      </c>
-      <c r="G39" s="22">
-        <v>0</v>
-      </c>
-      <c r="H39" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="R39" s="25">
-        <v>0.85</v>
-      </c>
-      <c r="S39" s="26"/>
-    </row>
-    <row r="40" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="21">
-        <v>1</v>
-      </c>
-      <c r="C40" s="21">
-        <v>1</v>
-      </c>
-      <c r="D40" s="21">
-        <v>3.68</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="23">
-        <v>1</v>
-      </c>
-      <c r="G40" s="22">
-        <f t="shared" si="28"/>
-        <v>1.3029127521808397</v>
-      </c>
-      <c r="H40" s="22">
-        <v>0.18611851448019803</v>
-      </c>
-      <c r="I40" s="55">
-        <v>2.56</v>
-      </c>
-      <c r="J40" s="55">
-        <v>5.31</v>
-      </c>
-      <c r="N40" s="24">
-        <f>(LN(J40) - LN(I40))/(2*1.96)</f>
-        <v>0.18611851448019803</v>
-      </c>
-      <c r="O40" s="24">
-        <f>ABS(LN(D40)/N40)</f>
-        <v>7.0004467627505287</v>
-      </c>
-      <c r="P40" s="24">
-        <f>EXP(-0.717*O40 - 0.416*O40^2)</f>
-        <v>9.2543967021286156E-12</v>
-      </c>
-      <c r="Q40" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="R40" s="25">
-        <v>0.12</v>
-      </c>
-      <c r="S40" s="26"/>
-    </row>
-    <row r="41" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="21">
-        <v>1</v>
-      </c>
-      <c r="C41" s="21">
-        <v>1</v>
-      </c>
-      <c r="D41" s="22">
-        <v>20</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="23">
-        <v>2</v>
-      </c>
-      <c r="G41" s="22">
-        <f t="shared" si="28"/>
-        <v>2.9957322735539909</v>
-      </c>
-      <c r="H41" s="22">
-        <v>0.76386837545884112</v>
-      </c>
-      <c r="I41" s="24">
-        <f t="shared" si="29"/>
-        <v>4.4751964833404605</v>
-      </c>
-      <c r="J41" s="24">
-        <f>EXP($G41+1.96*$H41)</f>
-        <v>89.381550394279941</v>
-      </c>
-      <c r="K41" s="55">
-        <v>1E-4</v>
-      </c>
-      <c r="L41" s="24">
-        <f t="shared" ref="L41" si="30" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K41))</f>
-        <v>3.9217912009441571</v>
-      </c>
-      <c r="M41" s="24">
-        <f t="shared" ref="M41" si="31">ABS(LN(D41) / L41)</f>
-        <v>0.76386837545884112</v>
-      </c>
-      <c r="Q41" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="R41" s="25">
-        <v>0.03</v>
-      </c>
-      <c r="S41" s="26"/>
-    </row>
-    <row r="42" spans="1:19" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="40">
-        <v>1</v>
-      </c>
-      <c r="C42" s="40">
-        <v>1</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="41">
-        <v>0</v>
-      </c>
-      <c r="H42" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="R42" s="44">
-        <v>0.4</v>
       </c>
       <c r="S42" s="45"/>
     </row>
     <row r="43" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="40">
+        <v>1</v>
+      </c>
+      <c r="C43" s="40">
+        <v>1</v>
+      </c>
+      <c r="D43" s="41">
+        <f>EXP(LN(D42)*2)</f>
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="42">
+        <v>2</v>
+      </c>
+      <c r="G43" s="41">
+        <f>LN(D43)</f>
+        <v>-0.14966077455440627</v>
+      </c>
+      <c r="H43" s="41">
+        <f>H42*2</f>
+        <v>0.06</v>
+      </c>
+      <c r="I43" s="43">
+        <f>EXP($G43-1.96*$H43)</f>
+        <v>0.7654734294432527</v>
+      </c>
+      <c r="J43" s="43">
+        <f>EXP($G43+1.96*$H43)</f>
+        <v>0.96844772331180795</v>
+      </c>
+      <c r="K43" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="L43" s="43">
+        <f t="shared" si="32"/>
+        <v>2.5751251253213594</v>
+      </c>
+      <c r="M43" s="43">
+        <f t="shared" si="33"/>
+        <v>5.811786506324796E-2</v>
+      </c>
+      <c r="Q43" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="R43" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="S43" s="45"/>
+    </row>
+    <row r="44" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="40">
+        <v>1</v>
+      </c>
+      <c r="C44" s="40">
+        <v>1</v>
+      </c>
+      <c r="D44" s="41">
+        <f>EXP(LN(D42)*3)</f>
+        <v>0.79892263768152161</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="42">
+        <v>3</v>
+      </c>
+      <c r="G44" s="41">
+        <f t="shared" ref="G44:G47" si="34">LN(D44)</f>
+        <v>-0.2244911618316095</v>
+      </c>
+      <c r="H44" s="41">
+        <f>H42*3</f>
+        <v>0.09</v>
+      </c>
+      <c r="I44" s="43">
+        <f t="shared" ref="I44:I51" si="35">EXP($G44-1.96*$H44)</f>
+        <v>0.66972294849043701</v>
+      </c>
+      <c r="J44" s="43">
+        <f>EXP($G44+1.96*$H44)</f>
+        <v>0.95304690161608496</v>
+      </c>
+      <c r="K44" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="L44" s="43">
+        <f t="shared" si="32"/>
+        <v>2.5751251253213594</v>
+      </c>
+      <c r="M44" s="43">
+        <f t="shared" si="33"/>
+        <v>8.7176797594871985E-2</v>
+      </c>
+      <c r="Q44" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="R44" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="S44" s="45"/>
+    </row>
+    <row r="45" spans="1:19" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="21">
+        <v>1</v>
+      </c>
+      <c r="C45" s="21">
+        <v>1</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="23">
+        <v>0</v>
+      </c>
+      <c r="G45" s="22">
+        <v>0</v>
+      </c>
+      <c r="H45" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="R45" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="S45" s="26"/>
+    </row>
+    <row r="46" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="21">
+        <v>1</v>
+      </c>
+      <c r="C46" s="21">
+        <v>1</v>
+      </c>
+      <c r="D46" s="21">
+        <v>3.68</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="23">
+        <v>1</v>
+      </c>
+      <c r="G46" s="22">
+        <f t="shared" si="34"/>
+        <v>1.3029127521808397</v>
+      </c>
+      <c r="H46" s="22">
+        <v>0.18611851448019803</v>
+      </c>
+      <c r="I46" s="55">
+        <v>2.56</v>
+      </c>
+      <c r="J46" s="55">
+        <v>5.31</v>
+      </c>
+      <c r="N46" s="24">
+        <f>(LN(J46) - LN(I46))/(2*1.96)</f>
+        <v>0.18611851448019803</v>
+      </c>
+      <c r="O46" s="24">
+        <f>ABS(LN(D46)/N46)</f>
+        <v>7.0004467627505287</v>
+      </c>
+      <c r="P46" s="24">
+        <f>EXP(-0.717*O46 - 0.416*O46^2)</f>
+        <v>9.2543967021286156E-12</v>
+      </c>
+      <c r="Q46" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R46" s="25">
+        <v>0.12</v>
+      </c>
+      <c r="S46" s="26"/>
+    </row>
+    <row r="47" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="21">
+        <v>1</v>
+      </c>
+      <c r="C47" s="21">
+        <v>1</v>
+      </c>
+      <c r="D47" s="22">
+        <v>20</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="23">
+        <v>2</v>
+      </c>
+      <c r="G47" s="22">
+        <f t="shared" si="34"/>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="H47" s="22">
+        <v>0.76386837545884112</v>
+      </c>
+      <c r="I47" s="24">
+        <f t="shared" si="35"/>
+        <v>4.4751964833404605</v>
+      </c>
+      <c r="J47" s="24">
+        <f>EXP($G47+1.96*$H47)</f>
+        <v>89.381550394279941</v>
+      </c>
+      <c r="K47" s="55">
+        <v>1E-4</v>
+      </c>
+      <c r="L47" s="24">
+        <f t="shared" ref="L47" si="36" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K47))</f>
+        <v>3.9217912009441571</v>
+      </c>
+      <c r="M47" s="24">
+        <f t="shared" ref="M47" si="37">ABS(LN(D47) / L47)</f>
+        <v>0.76386837545884112</v>
+      </c>
+      <c r="Q47" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="R47" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="S47" s="26"/>
+    </row>
+    <row r="48" spans="1:19" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="40">
-        <v>1</v>
-      </c>
-      <c r="C43" s="40">
-        <v>1</v>
-      </c>
-      <c r="D43" s="41">
+      <c r="B48" s="40">
+        <v>1</v>
+      </c>
+      <c r="C48" s="40">
+        <v>1</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="42">
+        <v>0</v>
+      </c>
+      <c r="G48" s="41">
+        <v>0</v>
+      </c>
+      <c r="H48" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="R48" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="S48" s="45"/>
+    </row>
+    <row r="49" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="40">
+        <v>1</v>
+      </c>
+      <c r="C49" s="40">
+        <v>1</v>
+      </c>
+      <c r="D49" s="41">
         <f>1.12^2</f>
         <v>1.2544000000000002</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E49" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="42">
-        <v>1</v>
-      </c>
-      <c r="G43" s="41">
-        <f t="shared" ref="G43:G45" si="32">LN(D43)</f>
+      <c r="F49" s="42">
+        <v>1</v>
+      </c>
+      <c r="G49" s="41">
+        <f t="shared" ref="G49:G51" si="38">LN(D49)</f>
         <v>0.22665737061400648</v>
       </c>
-      <c r="H43" s="41">
+      <c r="H49" s="41">
         <f>0.044*2</f>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I43" s="43">
-        <f t="shared" si="29"/>
+      <c r="I49" s="43">
+        <f t="shared" si="35"/>
         <v>1.0556718307109698</v>
       </c>
-      <c r="J43" s="43">
-        <f t="shared" ref="J43:J45" si="33">EXP($G43+1.96*$H43)</f>
+      <c r="J49" s="43">
+        <f t="shared" ref="J49:J51" si="39">EXP($G49+1.96*$H49)</f>
         <v>1.4905383607141176</v>
       </c>
-      <c r="K43" s="55">
+      <c r="K49" s="55">
         <v>0.01</v>
       </c>
-      <c r="Q43" s="46" t="s">
+      <c r="Q49" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="R43" s="44">
+      <c r="R49" s="44">
         <v>0.3</v>
       </c>
-      <c r="S43" s="45"/>
-    </row>
-    <row r="44" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
+      <c r="S49" s="45"/>
+    </row>
+    <row r="50" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="40">
-        <v>1</v>
-      </c>
-      <c r="C44" s="40">
-        <v>1</v>
-      </c>
-      <c r="D44" s="41">
-        <f>D43^(5/2)</f>
+      <c r="B50" s="40">
+        <v>1</v>
+      </c>
+      <c r="C50" s="40">
+        <v>1</v>
+      </c>
+      <c r="D50" s="41">
+        <f>D49^(5/2)</f>
         <v>1.7623416832000005</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E50" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F50" s="42">
         <v>2</v>
       </c>
-      <c r="G44" s="41">
-        <f t="shared" si="32"/>
+      <c r="G50" s="41">
+        <f t="shared" si="38"/>
         <v>0.5666434265350162</v>
       </c>
-      <c r="H44" s="41">
-        <f>H$43*5/2</f>
+      <c r="H50" s="41">
+        <f>H$49*5/2</f>
         <v>0.21999999999999997</v>
       </c>
-      <c r="I44" s="43">
-        <f t="shared" si="29"/>
+      <c r="I50" s="43">
+        <f t="shared" si="35"/>
         <v>1.1450444148719017</v>
       </c>
-      <c r="J44" s="43">
-        <f t="shared" si="33"/>
+      <c r="J50" s="43">
+        <f t="shared" si="39"/>
         <v>2.7124259705608611</v>
       </c>
-      <c r="Q44" s="46" t="s">
+      <c r="Q50" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="R44" s="44">
+      <c r="R50" s="44">
         <v>0.2</v>
       </c>
-      <c r="S44" s="45"/>
-    </row>
-    <row r="45" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
+      <c r="S50" s="45"/>
+    </row>
+    <row r="51" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="40">
-        <v>1</v>
-      </c>
-      <c r="C45" s="40">
-        <v>1</v>
-      </c>
-      <c r="D45" s="41">
-        <f>D$43^(8/2)</f>
+      <c r="B51" s="40">
+        <v>1</v>
+      </c>
+      <c r="C51" s="40">
+        <v>1</v>
+      </c>
+      <c r="D51" s="41">
+        <f>D$49^(8/2)</f>
         <v>2.4759631762948109</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E51" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F51" s="42">
         <v>3</v>
       </c>
-      <c r="G45" s="41">
-        <f t="shared" si="32"/>
+      <c r="G51" s="41">
+        <f t="shared" si="38"/>
         <v>0.90662948245602593</v>
       </c>
-      <c r="H45" s="41">
-        <f>H$43*8/2</f>
+      <c r="H51" s="41">
+        <f>H$49*8/2</f>
         <v>0.35199999999999998</v>
       </c>
-      <c r="I45" s="43">
-        <f t="shared" si="29"/>
+      <c r="I51" s="43">
+        <f t="shared" si="35"/>
         <v>1.2419832318025601</v>
       </c>
-      <c r="J45" s="43">
-        <f t="shared" si="33"/>
+      <c r="J51" s="43">
+        <f t="shared" si="39"/>
         <v>4.9359713508132499</v>
       </c>
-      <c r="Q45" s="46" t="s">
+      <c r="Q51" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="R45" s="44">
+      <c r="R51" s="44">
         <v>0.1</v>
       </c>
-      <c r="S45" s="45"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="9"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="9"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="9"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="9"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="9"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="9"/>
+      <c r="S51" s="45"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
@@ -3253,7 +3490,7 @@
       <c r="C52" s="8"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="F52" s="2"/>
       <c r="G52" s="6"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -3305,7 +3542,7 @@
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
+      <c r="P54" s="24"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="9"/>
@@ -3730,6 +3967,132 @@
       <c r="R74" s="8"/>
       <c r="S74" s="9"/>
     </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="9"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="9"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="9"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="9"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="9"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/required_files/relative risks.xlsx
+++ b/required_files/relative risks.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvaughan\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\required_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\required_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FAA8D3-58A5-4B45-95B6-EEE5B81C3C19}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="295710" yWindow="0" windowWidth="21915" windowHeight="11865"/>
+    <workbookView xWindow="297945" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use This" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -449,7 +450,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Assume sqroot of relative risk from above (Cook MB, et al. </t>
+      <t xml:space="preserve">Assume 2/3 root of relative risk from above (Cook MB, et al. </t>
     </r>
     <r>
       <rPr>
@@ -477,7 +478,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -988,12 +989,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1018,7 @@
     <col min="20" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1116,7 @@
       </c>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1170,9 +1171,16 @@
       <c r="R3" s="14">
         <v>0.3584</v>
       </c>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S3" s="9">
+        <f>0.73*2/3</f>
+        <v>0.48666666666666664</v>
+      </c>
+      <c r="T3">
+        <f>EXP(S3)</f>
+        <v>1.6268842242446702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1237,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1294,7 @@
       </c>
       <c r="S5" s="9"/>
     </row>
-    <row r="6" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1325,7 +1333,7 @@
       </c>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1382,7 +1390,7 @@
       </c>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -1421,7 +1429,7 @@
       </c>
       <c r="S8" s="9"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
@@ -1478,7 +1486,7 @@
       </c>
       <c r="S9" s="9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
@@ -1535,7 +1543,7 @@
       </c>
       <c r="S10" s="9"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
@@ -1592,7 +1600,7 @@
       </c>
       <c r="S11" s="9"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -1649,7 +1657,7 @@
       </c>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1688,7 +1696,7 @@
       </c>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -1745,7 +1753,7 @@
       </c>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
@@ -1786,7 +1794,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
@@ -2313,8 +2321,8 @@
         <v>1</v>
       </c>
       <c r="D27" s="12">
-        <f>SQRT(D3)</f>
-        <v>1.4422205101855958</v>
+        <f>EXP(G3*0.67)</f>
+        <v>1.6334371714549192</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>67</v>
@@ -2324,18 +2332,18 @@
       </c>
       <c r="G27" s="12">
         <f t="shared" ref="G27:G29" si="20">LN(D27)</f>
-        <v>0.36618394685661337</v>
+        <v>0.49068648878786186</v>
       </c>
       <c r="H27" s="12">
-        <v>0.1871492201908079</v>
+        <v>0.25077995505568257</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" ref="I27:I29" si="21">EXP($G27-1.96*$H27)</f>
-        <v>0.99937167276291416</v>
+        <v>0.99915813144906762</v>
       </c>
       <c r="J27" s="15">
         <f t="shared" ref="J27:J29" si="22">EXP($G27+1.96*$H27)</f>
-        <v>2.081307742343272</v>
+        <v>2.6703650894789872</v>
       </c>
       <c r="K27" s="55">
         <v>0.05</v>
@@ -2346,7 +2354,7 @@
       </c>
       <c r="M27" s="15">
         <f t="shared" ref="M27:M29" si="24">ABS(LN(D27) / L27)</f>
-        <v>0.1871492201908079</v>
+        <v>0.25077995505568257</v>
       </c>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
@@ -2370,8 +2378,8 @@
         <v>1</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" ref="D28:D29" si="25">SQRT(D4)</f>
-        <v>2.2516660498395407</v>
+        <f t="shared" ref="D28:D29" si="25">EXP(G4*0.67)</f>
+        <v>2.9672581594727543</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>68</v>
@@ -2381,18 +2389,18 @@
       </c>
       <c r="G28" s="12">
         <f t="shared" si="20"/>
-        <v>0.81167040880154595</v>
+        <v>1.0876383477940716</v>
       </c>
       <c r="H28" s="12">
-        <v>0.4148283543370197</v>
+        <v>0.55586999481160637</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="21"/>
-        <v>0.99860780430580842</v>
+        <v>0.99813489942906919</v>
       </c>
       <c r="J28" s="15">
         <f t="shared" si="22"/>
-        <v>5.0770682725882148</v>
+        <v>8.8210731735698875</v>
       </c>
       <c r="K28" s="14">
         <v>0.05</v>
@@ -2403,7 +2411,7 @@
       </c>
       <c r="M28" s="15">
         <f t="shared" si="24"/>
-        <v>0.4148283543370197</v>
+        <v>0.55586999481160637</v>
       </c>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
@@ -2428,7 +2436,7 @@
       </c>
       <c r="D29" s="12">
         <f t="shared" si="25"/>
-        <v>2.8213471959331771</v>
+        <v>4.0143178392147041</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>69</v>
@@ -2438,18 +2446,18 @@
       </c>
       <c r="G29" s="12">
         <f t="shared" si="20"/>
-        <v>1.0372144999281458</v>
+        <v>1.3898674299037155</v>
       </c>
       <c r="H29" s="12">
-        <v>0.53009938447181693</v>
+        <v>0.71033317519223482</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="21"/>
-        <v>0.9982212901460954</v>
+        <v>0.99761724979363564</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="22"/>
-        <v>7.974183759229386</v>
+        <v>16.153236842657705</v>
       </c>
       <c r="K29" s="14">
         <v>0.05</v>
@@ -2460,7 +2468,7 @@
       </c>
       <c r="M29" s="15">
         <f t="shared" si="24"/>
-        <v>0.53009938447181693</v>
+        <v>0.71033317519223482</v>
       </c>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>

--- a/required_files/relative risks.xlsx
+++ b/required_files/relative risks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\required_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FAA8D3-58A5-4B45-95B6-EEE5B81C3C19}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A3EC85-A7AA-49DD-826F-37ED4B0C8438}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="297945" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300180" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use This" sheetId="5" r:id="rId1"/>
@@ -327,11 +327,6 @@
   <si>
     <t>Parasa, S. et al. Gastroenterology 154, 1282-1289.e2 (2018); 
 Sikkema M, et al. Am J Gastro 106, 1231-1238 (2011); Anaparthy, R. et al. ClinGastro Hepatol 11, 1430-1436 (2013)</t>
-  </si>
-  <si>
-    <t>Reid, B. J., Am J Gastroenterol 95, 1669–76 (2000);
-Rastogi, A. et al. Gastrointestinal endoscopy 67, 394–8 (2008); 
-Choi, W.-T. et al. Gut (2017) doi:10.1136/gutjnl-2017-313815; Galipeau, P. C. et al. PLoS medicine 4, e67 (2007).</t>
   </si>
   <si>
     <t>Krishnamoorthi, et al.  Gastro Endo 84, 40–46.e7 (2016);
@@ -473,6 +468,17 @@
       </rPr>
       <t xml:space="preserve"> 9, e103508 (2014)).</t>
     </r>
+  </si>
+  <si>
+    <t>Parasa, Gastroenterology (2018);
+Krishnamoorthi, Am. J. Gastroenterol (2017);
+Duits, Gastroenterology (2017)
+Reid, Am J Gastroenterol 95, 1669–76 (2000);
+Rastogi, Gastrointestinal endoscopy (2008); 
+Choi,  Gut (2017); 
+Galipeau, PLoS medicine 4 (2007);
+Anaparthy, Nature Rev Gastro Hepatology (2014);
+Singh, Gastrointestinal Endoscopy (2014).</t>
   </si>
 </sst>
 </file>
@@ -993,8 +999,8 @@
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27:H29"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1136,7 @@
         <v>2.08</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="13">
         <v>1</v>
@@ -1194,7 +1200,7 @@
         <v>5.07</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="13">
         <v>2</v>
@@ -1251,7 +1257,7 @@
         <v>7.96</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="13">
         <v>3</v>
@@ -1710,7 +1716,7 @@
         <v>2.76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
@@ -1791,7 +1797,7 @@
         <v>0.5</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1885,13 +1891,13 @@
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R17" s="61">
         <v>0.25</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2159,7 +2165,7 @@
     </row>
     <row r="23" spans="1:19" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="21">
         <v>0</v>
@@ -2169,7 +2175,7 @@
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="23">
         <v>0</v>
@@ -2186,18 +2192,18 @@
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="Q23" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R23" s="27">
         <v>1.84E-2</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="21">
         <v>0</v>
@@ -2209,7 +2215,7 @@
         <v>0.33</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" s="23">
         <v>1</v>
@@ -2247,7 +2253,7 @@
         <v>0.98160000000000003</v>
       </c>
       <c r="S24" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2303,7 +2309,7 @@
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R26" s="14">
         <v>0.1</v>
@@ -2325,7 +2331,7 @@
         <v>1.6334371714549192</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="13">
         <v>1</v>
@@ -2382,7 +2388,7 @@
         <v>2.9672581594727543</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" s="13">
         <v>2</v>
@@ -2439,7 +2445,7 @@
         <v>4.0143178392147041</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="13">
         <v>3</v>
@@ -2505,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R30" s="44">
         <v>0.36</v>
@@ -2591,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R32" s="25">
         <v>0.3</v>
@@ -2852,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R37" s="44">
         <v>0.6</v>
@@ -2935,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R39" s="25">
         <v>0.2</v>
@@ -3019,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R41" s="44">
         <v>0.3</v>
@@ -3190,7 +3196,7 @@
       </c>
       <c r="S44" s="45"/>
     </row>
-    <row r="45" spans="1:19" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="24" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>27</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="36" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="R45" s="25">
         <v>0.85</v>

--- a/required_files/relative risks.xlsx
+++ b/required_files/relative risks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\required_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A3EC85-A7AA-49DD-826F-37ED4B0C8438}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A4F11-8AE6-4ED1-A6B4-BF6A93BF0D9D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300180" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="302415" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use This" sheetId="5" r:id="rId1"/>

--- a/required_files/relative risks.xlsx
+++ b/required_files/relative risks.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\required_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlvee\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working - AIRPLANE\required_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A3EC85-A7AA-49DD-826F-37ED4B0C8438}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3FE636BC-F6DC-4533-AE1F-DB7E11FE8FF8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300180" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="305520" yWindow="0" windowWidth="21920" windowHeight="11870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use This" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -999,32 +999,32 @@
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q45" sqref="Q45"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="53.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1796875" customWidth="1"/>
+    <col min="17" max="17" width="53.26953125" customWidth="1"/>
     <col min="19" max="19" width="61" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>1.6268842242446702</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="S5" s="9"/>
     </row>
-    <row r="6" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="S8" s="9"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="S9" s="9"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="S10" s="9"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="S11" s="9"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="S18" s="9"/>
     </row>
-    <row r="19" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>9</v>
       </c>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:19" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="24" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
         <v>76</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
         <v>76</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="48"/>
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
@@ -2277,7 +2277,7 @@
       <c r="R25" s="51"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>0</v>
       </c>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>0</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="1:19" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="43" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="39" t="s">
         <v>1</v>
       </c>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="S30" s="45"/>
     </row>
-    <row r="31" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="39" t="s">
         <v>1</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
         <v>2</v>
       </c>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="S32" s="26"/>
     </row>
-    <row r="33" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
         <v>2</v>
       </c>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="S33" s="29"/>
     </row>
-    <row r="34" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
         <v>2</v>
       </c>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="S34" s="26"/>
     </row>
-    <row r="35" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
         <v>2</v>
       </c>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="S35" s="26"/>
     </row>
-    <row r="36" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="1:19" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="43" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="39" t="s">
         <v>3</v>
       </c>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="S37" s="45"/>
     </row>
-    <row r="38" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="39" t="s">
         <v>3</v>
       </c>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="S38" s="45"/>
     </row>
-    <row r="39" spans="1:19" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="24" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
         <v>11</v>
       </c>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="S39" s="26"/>
     </row>
-    <row r="40" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
         <v>11</v>
       </c>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="S40" s="26"/>
     </row>
-    <row r="41" spans="1:19" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="39" t="s">
         <v>9</v>
       </c>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="S41" s="45"/>
     </row>
-    <row r="42" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="39" t="s">
         <v>9</v>
       </c>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="S42" s="45"/>
     </row>
-    <row r="43" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="39" t="s">
         <v>9</v>
       </c>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="S43" s="45"/>
     </row>
-    <row r="44" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="39" t="s">
         <v>9</v>
       </c>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="S44" s="45"/>
     </row>
-    <row r="45" spans="1:19" s="24" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="24" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
         <v>27</v>
       </c>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="S45" s="26"/>
     </row>
-    <row r="46" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="20" t="s">
         <v>27</v>
       </c>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="S46" s="26"/>
     </row>
-    <row r="47" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
         <v>27</v>
       </c>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="S47" s="26"/>
     </row>
-    <row r="48" spans="1:19" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="43" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="39" t="s">
         <v>10</v>
       </c>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="S48" s="45"/>
     </row>
-    <row r="49" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="39" t="s">
         <v>10</v>
       </c>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="S49" s="45"/>
     </row>
-    <row r="50" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="39" t="s">
         <v>10</v>
       </c>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="S50" s="45"/>
     </row>
-    <row r="51" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="39" t="s">
         <v>10</v>
       </c>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="S51" s="45"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3519,7 +3519,7 @@
       <c r="R52" s="8"/>
       <c r="S52" s="9"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3540,7 +3540,7 @@
       <c r="R53" s="8"/>
       <c r="S53" s="9"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -3561,7 +3561,7 @@
       <c r="R54" s="8"/>
       <c r="S54" s="9"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -3582,7 +3582,7 @@
       <c r="R55" s="8"/>
       <c r="S55" s="9"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -3603,7 +3603,7 @@
       <c r="R56" s="8"/>
       <c r="S56" s="9"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -3624,7 +3624,7 @@
       <c r="R57" s="8"/>
       <c r="S57" s="9"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -3645,7 +3645,7 @@
       <c r="R58" s="8"/>
       <c r="S58" s="9"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -3666,7 +3666,7 @@
       <c r="R59" s="8"/>
       <c r="S59" s="9"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -3687,7 +3687,7 @@
       <c r="R60" s="8"/>
       <c r="S60" s="9"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3708,7 +3708,7 @@
       <c r="R61" s="8"/>
       <c r="S61" s="9"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -3729,7 +3729,7 @@
       <c r="R62" s="8"/>
       <c r="S62" s="9"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3750,7 +3750,7 @@
       <c r="R63" s="8"/>
       <c r="S63" s="9"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3771,7 +3771,7 @@
       <c r="R64" s="8"/>
       <c r="S64" s="9"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3792,7 +3792,7 @@
       <c r="R65" s="8"/>
       <c r="S65" s="9"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -3813,7 +3813,7 @@
       <c r="R66" s="8"/>
       <c r="S66" s="9"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -3834,7 +3834,7 @@
       <c r="R67" s="8"/>
       <c r="S67" s="9"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3855,7 +3855,7 @@
       <c r="R68" s="8"/>
       <c r="S68" s="9"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3876,7 +3876,7 @@
       <c r="R69" s="8"/>
       <c r="S69" s="9"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -3897,7 +3897,7 @@
       <c r="R70" s="8"/>
       <c r="S70" s="9"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -3918,7 +3918,7 @@
       <c r="R71" s="8"/>
       <c r="S71" s="9"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -3939,7 +3939,7 @@
       <c r="R72" s="8"/>
       <c r="S72" s="9"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -3960,7 +3960,7 @@
       <c r="R73" s="8"/>
       <c r="S73" s="9"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3981,7 +3981,7 @@
       <c r="R74" s="8"/>
       <c r="S74" s="9"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -4002,7 +4002,7 @@
       <c r="R75" s="8"/>
       <c r="S75" s="9"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -4023,7 +4023,7 @@
       <c r="R76" s="8"/>
       <c r="S76" s="9"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -4044,7 +4044,7 @@
       <c r="R77" s="8"/>
       <c r="S77" s="9"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -4065,7 +4065,7 @@
       <c r="R78" s="8"/>
       <c r="S78" s="9"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -4086,7 +4086,7 @@
       <c r="R79" s="8"/>
       <c r="S79" s="9"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>

--- a/required_files/relative risks.xlsx
+++ b/required_files/relative risks.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlvee\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working - AIRPLANE\required_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvaughan\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\required_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3FE636BC-F6DC-4533-AE1F-DB7E11FE8FF8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="305520" yWindow="0" windowWidth="21920" windowHeight="11870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="307950" yWindow="0" windowWidth="21915" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Use This" sheetId="5" r:id="rId1"/>
@@ -484,7 +483,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -995,36 +994,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1796875" customWidth="1"/>
-    <col min="17" max="17" width="53.26953125" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="53.28515625" customWidth="1"/>
     <col min="19" max="19" width="61" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9.1796875" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1121,7 @@
       </c>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1185,7 @@
         <v>1.6268842242446702</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +1242,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1299,7 @@
       </c>
       <c r="S5" s="9"/>
     </row>
-    <row r="6" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1339,7 +1338,7 @@
       </c>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1396,7 +1395,7 @@
       </c>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -1435,7 +1434,7 @@
       </c>
       <c r="S8" s="9"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
@@ -1492,7 +1491,7 @@
       </c>
       <c r="S9" s="9"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
@@ -1549,7 +1548,7 @@
       </c>
       <c r="S10" s="9"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
@@ -1606,7 +1605,7 @@
       </c>
       <c r="S11" s="9"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -1663,7 +1662,7 @@
       </c>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1702,7 +1701,7 @@
       </c>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -1759,7 +1758,7 @@
       </c>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
@@ -1800,7 +1799,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1900,7 +1899,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1952,7 +1951,7 @@
       </c>
       <c r="S18" s="9"/>
     </row>
-    <row r="19" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
@@ -1991,7 +1990,7 @@
       </c>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
@@ -2047,7 +2046,7 @@
       </c>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
@@ -2105,7 +2104,7 @@
       </c>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>9</v>
       </c>
@@ -2163,7 +2162,7 @@
       </c>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:19" s="24" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>76</v>
       </c>
@@ -2201,7 +2200,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>76</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
@@ -2277,7 +2276,7 @@
       <c r="R25" s="51"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>0</v>
       </c>
@@ -2316,7 +2315,7 @@
       </c>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2372,7 @@
       </c>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
@@ -2430,7 +2429,7 @@
       </c>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>0</v>
       </c>
@@ -2487,7 +2486,7 @@
       </c>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="1:19" s="43" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>1</v>
       </c>
@@ -2518,7 +2517,7 @@
       </c>
       <c r="S30" s="45"/>
     </row>
-    <row r="31" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>1</v>
       </c>
@@ -2573,7 +2572,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>2</v>
       </c>
@@ -2604,7 +2603,7 @@
       </c>
       <c r="S32" s="26"/>
     </row>
-    <row r="33" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>2</v>
       </c>
@@ -2660,7 +2659,7 @@
       </c>
       <c r="S33" s="29"/>
     </row>
-    <row r="34" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>2</v>
       </c>
@@ -2718,7 +2717,7 @@
       </c>
       <c r="S34" s="26"/>
     </row>
-    <row r="35" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>2</v>
       </c>
@@ -2776,7 +2775,7 @@
       </c>
       <c r="S35" s="26"/>
     </row>
-    <row r="36" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -2834,7 +2833,7 @@
       </c>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="1:19" s="43" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
         <v>3</v>
       </c>
@@ -2865,7 +2864,7 @@
       </c>
       <c r="S37" s="45"/>
     </row>
-    <row r="38" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
         <v>3</v>
       </c>
@@ -2917,7 +2916,7 @@
       </c>
       <c r="S38" s="45"/>
     </row>
-    <row r="39" spans="1:19" s="24" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>11</v>
       </c>
@@ -2948,7 +2947,7 @@
       </c>
       <c r="S39" s="26"/>
     </row>
-    <row r="40" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>11</v>
       </c>
@@ -3001,7 +3000,7 @@
       </c>
       <c r="S40" s="26"/>
     </row>
-    <row r="41" spans="1:19" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="s">
         <v>9</v>
       </c>
@@ -3032,7 +3031,7 @@
       </c>
       <c r="S41" s="45"/>
     </row>
-    <row r="42" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
         <v>9</v>
       </c>
@@ -3086,7 +3085,7 @@
       </c>
       <c r="S42" s="45"/>
     </row>
-    <row r="43" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
         <v>9</v>
       </c>
@@ -3141,7 +3140,7 @@
       </c>
       <c r="S43" s="45"/>
     </row>
-    <row r="44" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
         <v>9</v>
       </c>
@@ -3196,7 +3195,7 @@
       </c>
       <c r="S44" s="45"/>
     </row>
-    <row r="45" spans="1:19" s="24" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" s="24" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>27</v>
       </c>
@@ -3223,11 +3222,11 @@
         <v>79</v>
       </c>
       <c r="R45" s="25">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="S45" s="26"/>
     </row>
-    <row r="46" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>27</v>
       </c>
@@ -3275,11 +3274,11 @@
         <v>22</v>
       </c>
       <c r="R46" s="25">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="S46" s="26"/>
     </row>
-    <row r="47" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>27</v>
       </c>
@@ -3332,7 +3331,7 @@
       </c>
       <c r="S47" s="26"/>
     </row>
-    <row r="48" spans="1:19" s="43" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
         <v>10</v>
       </c>
@@ -3363,7 +3362,7 @@
       </c>
       <c r="S48" s="45"/>
     </row>
-    <row r="49" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
         <v>10</v>
       </c>
@@ -3410,7 +3409,7 @@
       </c>
       <c r="S49" s="45"/>
     </row>
-    <row r="50" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="39" t="s">
         <v>10</v>
       </c>
@@ -3454,7 +3453,7 @@
       </c>
       <c r="S50" s="45"/>
     </row>
-    <row r="51" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
         <v>10</v>
       </c>
@@ -3498,7 +3497,7 @@
       </c>
       <c r="S51" s="45"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3519,7 +3518,7 @@
       <c r="R52" s="8"/>
       <c r="S52" s="9"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3540,7 +3539,7 @@
       <c r="R53" s="8"/>
       <c r="S53" s="9"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -3561,7 +3560,7 @@
       <c r="R54" s="8"/>
       <c r="S54" s="9"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -3582,7 +3581,7 @@
       <c r="R55" s="8"/>
       <c r="S55" s="9"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -3603,7 +3602,7 @@
       <c r="R56" s="8"/>
       <c r="S56" s="9"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -3624,7 +3623,7 @@
       <c r="R57" s="8"/>
       <c r="S57" s="9"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -3645,7 +3644,7 @@
       <c r="R58" s="8"/>
       <c r="S58" s="9"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -3666,7 +3665,7 @@
       <c r="R59" s="8"/>
       <c r="S59" s="9"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -3687,7 +3686,7 @@
       <c r="R60" s="8"/>
       <c r="S60" s="9"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3708,7 +3707,7 @@
       <c r="R61" s="8"/>
       <c r="S61" s="9"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -3729,7 +3728,7 @@
       <c r="R62" s="8"/>
       <c r="S62" s="9"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3750,7 +3749,7 @@
       <c r="R63" s="8"/>
       <c r="S63" s="9"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3771,7 +3770,7 @@
       <c r="R64" s="8"/>
       <c r="S64" s="9"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3792,7 +3791,7 @@
       <c r="R65" s="8"/>
       <c r="S65" s="9"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -3813,7 +3812,7 @@
       <c r="R66" s="8"/>
       <c r="S66" s="9"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -3834,7 +3833,7 @@
       <c r="R67" s="8"/>
       <c r="S67" s="9"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3855,7 +3854,7 @@
       <c r="R68" s="8"/>
       <c r="S68" s="9"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3876,7 +3875,7 @@
       <c r="R69" s="8"/>
       <c r="S69" s="9"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -3897,7 +3896,7 @@
       <c r="R70" s="8"/>
       <c r="S70" s="9"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -3918,7 +3917,7 @@
       <c r="R71" s="8"/>
       <c r="S71" s="9"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -3939,7 +3938,7 @@
       <c r="R72" s="8"/>
       <c r="S72" s="9"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -3960,7 +3959,7 @@
       <c r="R73" s="8"/>
       <c r="S73" s="9"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3981,7 +3980,7 @@
       <c r="R74" s="8"/>
       <c r="S74" s="9"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -4002,7 +4001,7 @@
       <c r="R75" s="8"/>
       <c r="S75" s="9"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -4023,7 +4022,7 @@
       <c r="R76" s="8"/>
       <c r="S76" s="9"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -4044,7 +4043,7 @@
       <c r="R77" s="8"/>
       <c r="S77" s="9"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -4065,7 +4064,7 @@
       <c r="R78" s="8"/>
       <c r="S78" s="9"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -4086,7 +4085,7 @@
       <c r="R79" s="8"/>
       <c r="S79" s="9"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
